--- a/testdata/inputdata.xlsx
+++ b/testdata/inputdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="4980" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="2895" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="InvalidLogin" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I4"/>
+  <oleSize ref="A1:K7"/>
 </workbook>
 </file>
 
